--- a/pred_ohlcv/54_21/2020-01-23 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TMTG ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-719959.1066807181</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-491843.4125807182</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-490168.2315807181</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-487668.2025807181</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-491530.4215807181</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-489612.0115807182</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-542693.5242807179</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-630936.937280718</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-519105.014280718</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-398501.341280718</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-393414.497280718</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-405976.312280718</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-397461.130280718</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-395131.335280718</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-388219.385280718</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1778707.458075808</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1771795.419075808</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1776867.353075808</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1771020.433075808</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1770540.504075808</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1769466.007075808</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4764890.959675809</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4760101.42667581</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-4759121.57467581</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4757960.418675809</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-4750787.839675809</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4749639.519262373</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4815617.09535126</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4815530.31035126</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4683818.05355126</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4682669.31355126</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>5684534.994674174</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>5917652.548674174</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5464857.311674174</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>5494952.222674174</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>5573020.282674174</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>5469608.393674173</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>5606565.570758362</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5403918.699758363</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>5219668.939258362</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>5424125.756558362</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>5167151.701558363</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>4910122.660558362</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>4883634.930558362</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>5672399.396058362</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>5779690.916073352</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6091824.510073352</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>5835385.311073352</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>5749818.491073351</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>5492844.436073352</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>5749558.171073352</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6006437.021073352</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>6263121.650073351</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>6145633.595073352</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>6321796.655073351</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>6064661.132073351</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>6322141.244073351</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>6064334.362073351</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>6300023.96307335</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>5783489.94507335</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>5524944.584073351</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5266189.120073351</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>5269304.45336163</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5284514.37866581</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5027452.232665811</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5284525.402665811</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>4771864.643665811</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 TMTG ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-719959.1066807181</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-491843.4125807182</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-490168.2315807181</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-487668.2025807181</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-491530.4215807181</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-489612.0115807182</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-542693.5242807179</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-630936.937280718</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-519105.014280718</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-398501.341280718</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-393414.497280718</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-405976.312280718</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-423343.360280718</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-397461.130280718</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-395131.335280718</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-388219.385280718</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1778707.458075808</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1774967.693075808</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1771795.419075808</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1776867.353075808</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1771020.433075808</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1770540.504075808</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1769466.007075808</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4765432.964675809</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4764890.959675809</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4763086.81467581</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4760101.42667581</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-4759121.57467581</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-4760916.714675809</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4758704.651675809</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4761675.953675809</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4757960.418675809</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-4750787.839675809</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4749639.519262373</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-4810229.07935126</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4815617.09535126</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4810818.03835126</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4815530.31035126</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4683818.05355126</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4682669.31355126</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4684193.60155126</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4683980.06255126</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4684960.65855126</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>4864179.18135679</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>4177871.060656791</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3291642.986656791</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>5114184.143656791</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3968949.001856791</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>5248875.544856791</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>4846696.549856791</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>4434655.273856792</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3913393.137065071</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5215075.234873352</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>5201403.178873352</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5211558.130873351</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5363882.302873351</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>6206778.64577335</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>6051608.63477335</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>6051608.63477335</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>6044297.67977335</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>6022184.00777335</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>6101364.015773349</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>5917652.548674174</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>5996654.072674174</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>5655152.874674174</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>5464857.311674174</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>5469608.393674173</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>5606565.570758362</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>5228907.930758363</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>5403918.699758363</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>5166537.926758363</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>5476650.168258362</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>5167151.701558363</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>4910122.660558362</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>4883634.930558362</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>5779690.916073352</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6091824.510073352</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>5835385.311073352</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>5749818.491073351</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>5492844.436073352</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>5749558.171073352</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6006437.021073352</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>6263121.650073351</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>6145633.595073352</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>6321796.655073351</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>6064661.132073351</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>6322141.244073351</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>6064334.362073351</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>6300023.96307335</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>5783489.94507335</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>5524944.584073351</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5266189.120073351</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>5012696.807361631</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>5269304.45336163</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>5525846.26936163</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>5284514.37866581</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>5027452.232665811</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>5284525.402665811</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>4771864.643665811</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>4771864.643665811</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>4693820.400944475</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
